--- a/screen/screenList_protocolCore.xlsx
+++ b/screen/screenList_protocolCore.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\screen_protocolCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00184968-401D-4F4B-95C8-9F7EA1C1CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78653DE-A289-4408-8931-C4087E13E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove videate" sheetId="1" r:id="rId1"/>
     <sheet name="Blocchi di videata" sheetId="2" r:id="rId2"/>
     <sheet name="Nuovi campi in videata" sheetId="3" r:id="rId3"/>
-    <sheet name="Parametri Azioni Campo" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle Refenziate" sheetId="5" r:id="rId4"/>
+    <sheet name="Parametri Azioni Campo" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="124">
   <si>
     <t>Cod Finestra</t>
   </si>
@@ -256,6 +257,150 @@
   </si>
   <si>
     <t>Valore Parametro</t>
+  </si>
+  <si>
+    <t>6911*</t>
+  </si>
+  <si>
+    <t>YAX3MUSR</t>
+  </si>
+  <si>
+    <t>YAX3MU</t>
+  </si>
+  <si>
+    <t>YAX3M(B)</t>
+  </si>
+  <si>
+    <t>Backend Utenti ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>Configurazione ArgoX3Mobile (#?)</t>
+  </si>
+  <si>
+    <t>Filtri</t>
+  </si>
+  <si>
+    <t>Anagrafica</t>
+  </si>
+  <si>
+    <t>Credenziali</t>
+  </si>
+  <si>
+    <t>Riquadro</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>NBLIG</t>
+  </si>
+  <si>
+    <t>Tabelle referenziate</t>
+  </si>
+  <si>
+    <t>Descrizione Tabella</t>
+  </si>
+  <si>
+    <t>AUTILIS</t>
+  </si>
+  <si>
+    <t>Utenti</t>
+  </si>
+  <si>
+    <t>YAX3MUSER</t>
+  </si>
+  <si>
+    <t>Utenti Argo X3 Mobile</t>
+  </si>
+  <si>
+    <t>YUSRFILTER</t>
+  </si>
+  <si>
+    <t>YEMFILTER</t>
+  </si>
+  <si>
+    <t>YSELECT</t>
+  </si>
+  <si>
+    <t>ADDEMLX3</t>
+  </si>
+  <si>
+    <t>AX3MUSR</t>
+  </si>
+  <si>
+    <t>NOMUSR</t>
+  </si>
+  <si>
+    <t>ENAFLG</t>
+  </si>
+  <si>
+    <t>YCRED</t>
+  </si>
+  <si>
+    <t>Nome Completo</t>
+  </si>
+  <si>
+    <t>Indirizzo e-mail</t>
+  </si>
+  <si>
+    <t>Seleziona</t>
+  </si>
+  <si>
+    <t>Utente X3</t>
+  </si>
+  <si>
+    <t>Utente AX3M</t>
+  </si>
+  <si>
+    <t>Attivo</t>
+  </si>
+  <si>
+    <t>Credenziali ArgoX3Mobile</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>USR</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>Indirizzo e-mail X3</t>
+  </si>
+  <si>
+    <t>Testo multirighe</t>
+  </si>
+  <si>
+    <t>Estesa</t>
+  </si>
+  <si>
+    <t>SPE</t>
+  </si>
+  <si>
+    <t>Bottone1</t>
+  </si>
+  <si>
+    <t>Interattiva</t>
+  </si>
+  <si>
+    <t>Reset password</t>
   </si>
 </sst>
 </file>
@@ -279,15 +424,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -412,11 +563,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,9 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,42 +674,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,6 +714,80 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +1081,7 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
@@ -832,30 +1118,84 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="35" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -864,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C465E971-D4B8-432C-ADB8-5C07CE2DCEDA}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,34 +1225,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -945,6 +1285,107 @@
         <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="38">
+        <v>5</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="4">
+        <v>500</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="44">
+        <v>15</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -955,10 +1396,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA237469-7094-419E-9AF2-17EB39C0F098}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,535 +1409,1056 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" customWidth="1"/>
     <col min="15" max="15" width="12.140625" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" customWidth="1"/>
-    <col min="18" max="18" width="35.28515625" customWidth="1"/>
-    <col min="19" max="19" width="37.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="24" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="M3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="R3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="R4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="9">
         <v>1</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>1</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="10" t="s">
+      <c r="M5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="R5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="33"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>8</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>15</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="M7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="R7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>44</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="10">
-        <v>6911</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="H8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="9">
         <v>15</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="10" t="s">
+      <c r="M8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="S8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="20">
         <v>2</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="20">
         <v>7</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="20">
         <v>1</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="20">
         <v>4</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="27" t="s">
+      <c r="M10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="S10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
+      <c r="S10" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="48">
+        <v>1</v>
+      </c>
+      <c r="F12" s="48">
+        <v>1</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="35">
+        <v>1</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="48">
+        <v>1</v>
+      </c>
+      <c r="F13" s="48">
+        <v>2</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="35">
+        <v>1</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="48">
+        <v>2</v>
+      </c>
+      <c r="F14" s="48">
+        <v>1</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="48">
+        <v>2</v>
+      </c>
+      <c r="F15" s="48">
+        <v>2</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="35">
+        <v>500</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="48">
+        <v>2</v>
+      </c>
+      <c r="F16" s="48">
+        <v>3</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="35">
+        <v>500</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="48">
+        <v>2</v>
+      </c>
+      <c r="F17" s="48">
+        <v>4</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="35">
+        <v>500</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="48">
+        <v>2</v>
+      </c>
+      <c r="F18" s="48">
+        <v>5</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="35">
+        <v>500</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="48">
+        <v>2</v>
+      </c>
+      <c r="F19" s="48">
+        <v>6</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="35">
+        <v>500</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="48">
+        <v>2</v>
+      </c>
+      <c r="F20" s="48">
+        <v>7</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="48">
+        <v>1</v>
+      </c>
+      <c r="I20" s="48">
+        <v>4</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="35">
+        <v>500</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="48">
+        <v>3</v>
+      </c>
+      <c r="F21" s="48">
+        <v>1</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="35">
+        <v>1</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="R21" s="48" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,11 +2466,64 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF426FF4-8212-449E-B801-E13981407F78}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7DA8FE-E621-4698-863B-B0FF5EC6B02E}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,31 +2540,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="24" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1577,6 +2594,35 @@
         <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>26</v>
       </c>
     </row>

--- a/screen/screenList_protocolCore.xlsx
+++ b/screen/screenList_protocolCore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78653DE-A289-4408-8931-C4087E13E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92936DD4-F6D9-4895-B10D-E5CC73E2DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="126">
   <si>
     <t>Cod Finestra</t>
   </si>
@@ -316,9 +316,6 @@
     <t>YUSRFILTER</t>
   </si>
   <si>
-    <t>YEMFILTER</t>
-  </si>
-  <si>
     <t>YSELECT</t>
   </si>
   <si>
@@ -401,6 +398,15 @@
   </si>
   <si>
     <t>Reset password</t>
+  </si>
+  <si>
+    <t>YEMLFILTER</t>
+  </si>
+  <si>
+    <t>AM_Post Modifica</t>
+  </si>
+  <si>
+    <t>AM PostModifica</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,15 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,7 +1069,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,10 +1395,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA237469-7094-419E-9AF2-17EB39C0F098}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15:P15"/>
+      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,573 +1888,591 @@
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="48">
+        <v>101</v>
+      </c>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="48" t="s">
+      <c r="G12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="35">
         <v>1</v>
       </c>
-      <c r="M12" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="50" t="s">
+      <c r="M12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R12" s="48" t="s">
+      <c r="R12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="48" t="s">
+      <c r="S12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>95</v>
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="48">
+        <v>102</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="G13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L13" s="35">
         <v>1</v>
       </c>
-      <c r="M13" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="50" t="s">
+      <c r="M13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R13" s="48" t="s">
+      <c r="R13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="48" t="s">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="31"/>
-      <c r="E14" s="48">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="48" t="s">
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="48">
-        <v>2</v>
-      </c>
-      <c r="F15" s="48">
-        <v>2</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L15" s="35">
         <v>500</v>
       </c>
-      <c r="M15" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N15" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="50" t="s">
+      <c r="M15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="48" t="s">
+      <c r="R15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S15" s="48" t="s">
+      <c r="S15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>97</v>
+      <c r="A16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="48">
+        <v>116</v>
+      </c>
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="4">
         <v>3</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="48" t="s">
+      <c r="G16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L16" s="35">
         <v>500</v>
       </c>
-      <c r="M16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="50" t="s">
+      <c r="M16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="48" t="s">
+      <c r="R16" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>110</v>
+      <c r="S16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="48">
+        <v>104</v>
+      </c>
+      <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="4">
         <v>4</v>
       </c>
-      <c r="G17" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="48" t="s">
+      <c r="G17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L17" s="35">
         <v>500</v>
       </c>
-      <c r="M17" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="50" t="s">
+      <c r="M17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="48" t="s">
+      <c r="R17" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>98</v>
+      <c r="S17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="48">
+        <v>105</v>
+      </c>
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="48" t="s">
+      <c r="G18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="4">
         <v>5</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L18" s="35">
         <v>500</v>
       </c>
-      <c r="M18" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="50" t="s">
+      <c r="M18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="48" t="s">
+      <c r="R18" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>99</v>
+      <c r="S18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="48">
+        <v>101</v>
+      </c>
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="4">
         <v>6</v>
       </c>
-      <c r="G19" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="48" t="s">
+      <c r="G19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L19" s="35">
         <v>500</v>
       </c>
-      <c r="M19" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="50" t="s">
+      <c r="M19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="48" t="s">
+      <c r="R19" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>100</v>
+      <c r="S19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="48">
+        <v>106</v>
+      </c>
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="4">
         <v>7</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L20" s="35">
         <v>500</v>
       </c>
-      <c r="M20" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="50" t="s">
+      <c r="M20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="48" t="s">
+      <c r="R20" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>101</v>
+      <c r="S20" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="48">
+        <v>107</v>
+      </c>
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="48" t="s">
+      <c r="G21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L21" s="35">
         <v>1</v>
       </c>
-      <c r="M21" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="48" t="s">
+      <c r="M21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="R21" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2520,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7DA8FE-E621-4698-863B-B0FF5EC6B02E}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2547,7 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
@@ -2608,21 +2623,50 @@
         <v>87</v>
       </c>
       <c r="D4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="H4" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="35" t="s">
         <v>26</v>
       </c>
     </row>

--- a/screen/screenList_protocolCore.xlsx
+++ b/screen/screenList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92936DD4-F6D9-4895-B10D-E5CC73E2DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D36CF-80C5-4CC2-BB38-EC3BF6513D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove videate" sheetId="1" r:id="rId1"/>
@@ -268,9 +268,6 @@
     <t>YAX3MU</t>
   </si>
   <si>
-    <t>YAX3M(B)</t>
-  </si>
-  <si>
     <t>Backend Utenti ArgoX3 Mobile</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>AM PostModifica</t>
+  </si>
+  <si>
+    <t>YAX3C</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,6 +785,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1079,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>11</v>
@@ -1154,10 +1164,10 @@
         <v>78</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>11</v>
@@ -1204,7 +1214,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
@@ -1299,7 +1309,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>77</v>
@@ -1315,7 +1325,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>26</v>
@@ -1329,13 +1339,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
@@ -1344,21 +1354,21 @@
         <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="H5" s="4">
         <v>500</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>77</v>
@@ -1374,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>26</v>
@@ -1395,10 +1405,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA237469-7094-419E-9AF2-17EB39C0F098}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1544,7 @@
         <v>49</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="L3" s="8">
         <v>1</v>
@@ -1565,55 +1575,55 @@
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="50">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="50">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="48">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="48">
         <v>1</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="27" t="s">
+      <c r="M4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="48" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="15" t="s">
@@ -1652,7 +1662,7 @@
         <v>49</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="L5" s="9">
         <v>1</v>
@@ -1895,10 +1905,10 @@
         <v>77</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1907,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -1919,7 +1929,7 @@
         <v>58</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L12" s="35">
         <v>1</v>
@@ -1954,10 +1964,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1966,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>26</v>
@@ -1978,7 +1988,7 @@
         <v>58</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L13" s="35">
         <v>1</v>
@@ -2013,7 +2023,7 @@
         <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="4">
@@ -2023,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>26</v>
@@ -2059,7 +2069,7 @@
         <v>64</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2070,10 +2080,10 @@
         <v>77</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -2082,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
@@ -2094,7 +2104,7 @@
         <v>58</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L15" s="35">
         <v>500</v>
@@ -2129,10 +2139,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -2141,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>26</v>
@@ -2153,7 +2163,7 @@
         <v>49</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L16" s="35">
         <v>500</v>
@@ -2165,7 +2175,7 @@
         <v>59</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>26</v>
@@ -2188,10 +2198,10 @@
         <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -2200,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -2212,7 +2222,7 @@
         <v>58</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L17" s="35">
         <v>500</v>
@@ -2247,10 +2257,10 @@
         <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -2259,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>26</v>
@@ -2271,7 +2281,7 @@
         <v>58</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L18" s="35">
         <v>500</v>
@@ -2306,10 +2316,10 @@
         <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
@@ -2318,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
@@ -2330,7 +2340,7 @@
         <v>58</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L19" s="35">
         <v>500</v>
@@ -2365,10 +2375,10 @@
         <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -2389,7 +2399,7 @@
         <v>58</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L20" s="35">
         <v>500</v>
@@ -2413,7 +2423,7 @@
         <v>64</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,10 +2434,10 @@
         <v>77</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="4">
         <v>3</v>
@@ -2436,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>26</v>
@@ -2448,7 +2458,7 @@
         <v>49</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="L21" s="35">
         <v>1</v>
@@ -2466,7 +2476,7 @@
         <v>26</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>64</v>
@@ -2485,7 +2495,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2511,10 +2521,10 @@
         <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2522,10 +2532,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2548,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,19 +2630,19 @@
         <v>77</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>121</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>122</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>26</v>
@@ -2649,16 +2659,16 @@
         <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>26</v>

--- a/screen/screenList_protocolCore.xlsx
+++ b/screen/screenList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D36CF-80C5-4CC2-BB38-EC3BF6513D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC57777E-93B8-4465-8AB7-1F48375FBCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove videate" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="126">
   <si>
     <t>Cod Finestra</t>
   </si>
@@ -653,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,16 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1405,10 +1395,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA237469-7094-419E-9AF2-17EB39C0F098}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,55 +1565,55 @@
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="48">
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="51" t="s">
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="15" t="s">
@@ -1724,9 +1714,7 @@
       <c r="J7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="8">
         <v>15</v>
       </c>
@@ -1784,9 +1772,7 @@
       <c r="J8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
         <v>63</v>
       </c>
@@ -1866,9 +1852,7 @@
       <c r="J10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="K10" s="20"/>
       <c r="L10" s="20" t="s">
         <v>63</v>
       </c>
@@ -2547,7 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7DA8FE-E621-4698-863B-B0FF5EC6B02E}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
